--- a/sprints/sprint1/Sprint1 Backlog with Burndown.xlsx
+++ b/sprints/sprint1/Sprint1 Backlog with Burndown.xlsx
@@ -1,13 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dowee\Desktop\School lul\Software Engineer 2\UWG-SE2-Spring22-Team2\sprints\sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B3D6D-35A9-4377-A872-4BBAE038BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgkBhBvwRqjbDaM4Bq+2FOT4ZjooQ=="/>
     </ext>
@@ -16,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Related User Story</t>
   </si>
@@ -74,26 +93,32 @@
   <si>
     <t>Estimate Totals</t>
   </si>
+  <si>
+    <t>Create UI for Login</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -103,7 +128,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,79 +174,110 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -230,7 +286,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -238,7 +294,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -251,15 +307,17 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -271,11 +329,43 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$26:$H$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E96F-443C-840E-D013802DFE12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1890342928"/>
         <c:axId val="259981995"/>
       </c:lineChart>
@@ -300,15 +390,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -317,22 +399,28 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="259981995"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="259981995"/>
@@ -364,15 +452,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -390,25 +470,35 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1890342928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -417,9 +507,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4343400" cy="2428875"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1049304268" name="Chart 1"/>
+        <xdr:cNvPr id="1049304268" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC1C8B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -428,7 +524,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -438,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -628,396 +724,420 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.43"/>
-    <col customWidth="1" min="2" max="2" width="41.71"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="13" t="s">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
-        <f t="shared" ref="D26:H26" si="1">SUM(D3:D25)</f>
-        <v>33</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:H26" si="0">SUM(D3:D25)</f>
+        <v>32</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1993,8 +2113,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
